--- a/doc/app/pg0176/01_データ設計/DB一覧.xlsx
+++ b/doc/app/pg0176/01_データ設計/DB一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0176\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0176\01_データ設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1028B819-5BD6-45C5-9AC2-2A6BABEEB31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47033A2-7873-4F96-BDAE-23336BA7FFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1670" yWindow="420" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB一覧" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>DB一覧</t>
     <rPh sb="2" eb="4">
@@ -141,6 +141,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>3.48.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -206,12 +210,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,272 +500,272 @@
   <dimension ref="B2:EL17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="BG6" sqref="BG6:BR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:142">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="2"/>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
-      <c r="CP2" s="2"/>
-      <c r="CQ2" s="2"/>
-      <c r="CR2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
     </row>
     <row r="4" spans="2:142">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3" t="s">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3" t="s">
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3" t="s">
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3" t="s">
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3" t="s">
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
-      <c r="CK4" s="3"/>
-      <c r="CL4" s="3"/>
-      <c r="CM4" s="3" t="s">
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CN4" s="3"/>
-      <c r="CO4" s="3"/>
-      <c r="CP4" s="3"/>
-      <c r="CQ4" s="3"/>
-      <c r="CR4" s="3"/>
-      <c r="CS4" s="3"/>
-      <c r="CT4" s="3"/>
-      <c r="CU4" s="3"/>
-      <c r="CV4" s="3"/>
-      <c r="CW4" s="3"/>
-      <c r="CX4" s="3"/>
-      <c r="CY4" s="3"/>
-      <c r="CZ4" s="3"/>
-      <c r="DA4" s="3"/>
-      <c r="DB4" s="3"/>
-      <c r="DC4" s="3"/>
-      <c r="DD4" s="3"/>
-      <c r="DE4" s="3"/>
-      <c r="DF4" s="3"/>
-      <c r="DG4" s="3"/>
-      <c r="DH4" s="3"/>
-      <c r="DI4" s="3"/>
-      <c r="DJ4" s="3"/>
-      <c r="DK4" s="3"/>
-      <c r="DL4" s="3"/>
-      <c r="DM4" s="3" t="s">
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="DN4" s="3"/>
-      <c r="DO4" s="3"/>
-      <c r="DP4" s="3"/>
-      <c r="DQ4" s="3"/>
-      <c r="DR4" s="3"/>
-      <c r="DS4" s="3"/>
-      <c r="DT4" s="3"/>
-      <c r="DU4" s="3"/>
-      <c r="DV4" s="3"/>
-      <c r="DW4" s="3"/>
-      <c r="DX4" s="3"/>
-      <c r="DY4" s="3"/>
-      <c r="DZ4" s="3"/>
-      <c r="EA4" s="3"/>
-      <c r="EB4" s="3"/>
-      <c r="EC4" s="3"/>
-      <c r="ED4" s="3"/>
-      <c r="EE4" s="3"/>
-      <c r="EF4" s="3"/>
-      <c r="EG4" s="3"/>
-      <c r="EH4" s="3"/>
-      <c r="EI4" s="3"/>
-      <c r="EJ4" s="3"/>
-      <c r="EK4" s="3"/>
-      <c r="EL4" s="3"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
+      <c r="DX4" s="2"/>
+      <c r="DY4" s="2"/>
+      <c r="DZ4" s="2"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="2"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
     </row>
     <row r="5" spans="2:142" ht="41.5" customHeight="1">
       <c r="B5" s="1">
@@ -831,7 +835,9 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
@@ -895,7 +901,7 @@
       <c r="DJ5" s="1"/>
       <c r="DK5" s="1"/>
       <c r="DL5" s="1"/>
-      <c r="DM5" s="4" t="s">
+      <c r="DM5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="DN5" s="1"/>
@@ -2642,30 +2648,105 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="DM13:EL13"/>
-    <mergeCell ref="DM14:EL14"/>
-    <mergeCell ref="DM15:EL15"/>
-    <mergeCell ref="DM16:EL16"/>
-    <mergeCell ref="DM17:EL17"/>
-    <mergeCell ref="DM4:EL4"/>
-    <mergeCell ref="DM5:EL5"/>
-    <mergeCell ref="DM6:EL6"/>
-    <mergeCell ref="DM7:EL7"/>
-    <mergeCell ref="DM8:EL8"/>
-    <mergeCell ref="DM9:EL9"/>
-    <mergeCell ref="DM10:EL10"/>
-    <mergeCell ref="DM11:EL11"/>
-    <mergeCell ref="DM12:EL12"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:R4"/>
-    <mergeCell ref="S4:AF4"/>
-    <mergeCell ref="AG4:AT4"/>
-    <mergeCell ref="AU4:BF4"/>
-    <mergeCell ref="BG4:BR4"/>
-    <mergeCell ref="BS4:CB4"/>
-    <mergeCell ref="CC4:CL4"/>
-    <mergeCell ref="CM4:DL4"/>
+    <mergeCell ref="BS17:CB17"/>
+    <mergeCell ref="CC17:CL17"/>
+    <mergeCell ref="CM17:DL17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:AF17"/>
+    <mergeCell ref="AG17:AT17"/>
+    <mergeCell ref="AU17:BF17"/>
+    <mergeCell ref="BG17:BR17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:R16"/>
+    <mergeCell ref="S16:AF16"/>
+    <mergeCell ref="AG16:AT16"/>
+    <mergeCell ref="AU16:BF16"/>
+    <mergeCell ref="BG16:BR16"/>
+    <mergeCell ref="BS16:CB16"/>
+    <mergeCell ref="CC16:CL16"/>
+    <mergeCell ref="CM16:DL16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:R15"/>
+    <mergeCell ref="S15:AF15"/>
+    <mergeCell ref="AG15:AT15"/>
+    <mergeCell ref="AU15:BF15"/>
+    <mergeCell ref="BG15:BR15"/>
+    <mergeCell ref="BS15:CB15"/>
+    <mergeCell ref="CC15:CL15"/>
+    <mergeCell ref="CM15:DL15"/>
+    <mergeCell ref="BS13:CB13"/>
+    <mergeCell ref="CC13:CL13"/>
+    <mergeCell ref="CM13:DL13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:R14"/>
+    <mergeCell ref="S14:AF14"/>
+    <mergeCell ref="AG14:AT14"/>
+    <mergeCell ref="AU14:BF14"/>
+    <mergeCell ref="BG14:BR14"/>
+    <mergeCell ref="BS14:CB14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:R13"/>
+    <mergeCell ref="S13:AF13"/>
+    <mergeCell ref="AG13:AT13"/>
+    <mergeCell ref="AU13:BF13"/>
+    <mergeCell ref="BG13:BR13"/>
+    <mergeCell ref="CC14:CL14"/>
+    <mergeCell ref="CM14:DL14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:R12"/>
+    <mergeCell ref="S12:AF12"/>
+    <mergeCell ref="AG12:AT12"/>
+    <mergeCell ref="AU12:BF12"/>
+    <mergeCell ref="BG12:BR12"/>
+    <mergeCell ref="BS12:CB12"/>
+    <mergeCell ref="CC12:CL12"/>
+    <mergeCell ref="CM12:DL12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:R11"/>
+    <mergeCell ref="S11:AF11"/>
+    <mergeCell ref="AG11:AT11"/>
+    <mergeCell ref="AU11:BF11"/>
+    <mergeCell ref="BG11:BR11"/>
+    <mergeCell ref="BS11:CB11"/>
+    <mergeCell ref="CC11:CL11"/>
+    <mergeCell ref="CM11:DL11"/>
+    <mergeCell ref="BS9:CB9"/>
+    <mergeCell ref="CC9:CL9"/>
+    <mergeCell ref="CM9:DL9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:AF10"/>
+    <mergeCell ref="AG10:AT10"/>
+    <mergeCell ref="AU10:BF10"/>
+    <mergeCell ref="BG10:BR10"/>
+    <mergeCell ref="BS10:CB10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:R9"/>
+    <mergeCell ref="S9:AF9"/>
+    <mergeCell ref="AG9:AT9"/>
+    <mergeCell ref="AU9:BF9"/>
+    <mergeCell ref="BG9:BR9"/>
+    <mergeCell ref="CC10:CL10"/>
+    <mergeCell ref="CM10:DL10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:R8"/>
+    <mergeCell ref="S8:AF8"/>
+    <mergeCell ref="AG8:AT8"/>
+    <mergeCell ref="AU8:BF8"/>
+    <mergeCell ref="BG8:BR8"/>
+    <mergeCell ref="BS8:CB8"/>
+    <mergeCell ref="CC8:CL8"/>
+    <mergeCell ref="CM8:DL8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:R7"/>
+    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="AG7:AT7"/>
+    <mergeCell ref="AU7:BF7"/>
+    <mergeCell ref="BG7:BR7"/>
+    <mergeCell ref="BS7:CB7"/>
+    <mergeCell ref="CC7:CL7"/>
+    <mergeCell ref="CM7:DL7"/>
     <mergeCell ref="BS5:CB5"/>
     <mergeCell ref="CC5:CL5"/>
     <mergeCell ref="CM5:DL5"/>
@@ -2684,105 +2765,30 @@
     <mergeCell ref="BG5:BR5"/>
     <mergeCell ref="CC6:CL6"/>
     <mergeCell ref="CM6:DL6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:R7"/>
-    <mergeCell ref="S7:AF7"/>
-    <mergeCell ref="AG7:AT7"/>
-    <mergeCell ref="AU7:BF7"/>
-    <mergeCell ref="BG7:BR7"/>
-    <mergeCell ref="BS7:CB7"/>
-    <mergeCell ref="CC7:CL7"/>
-    <mergeCell ref="CM7:DL7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:R8"/>
-    <mergeCell ref="S8:AF8"/>
-    <mergeCell ref="AG8:AT8"/>
-    <mergeCell ref="AU8:BF8"/>
-    <mergeCell ref="BG8:BR8"/>
-    <mergeCell ref="BS8:CB8"/>
-    <mergeCell ref="CC8:CL8"/>
-    <mergeCell ref="CM8:DL8"/>
-    <mergeCell ref="BS9:CB9"/>
-    <mergeCell ref="CC9:CL9"/>
-    <mergeCell ref="CM9:DL9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:AF10"/>
-    <mergeCell ref="AG10:AT10"/>
-    <mergeCell ref="AU10:BF10"/>
-    <mergeCell ref="BG10:BR10"/>
-    <mergeCell ref="BS10:CB10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:R9"/>
-    <mergeCell ref="S9:AF9"/>
-    <mergeCell ref="AG9:AT9"/>
-    <mergeCell ref="AU9:BF9"/>
-    <mergeCell ref="BG9:BR9"/>
-    <mergeCell ref="CC10:CL10"/>
-    <mergeCell ref="CM10:DL10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:R11"/>
-    <mergeCell ref="S11:AF11"/>
-    <mergeCell ref="AG11:AT11"/>
-    <mergeCell ref="AU11:BF11"/>
-    <mergeCell ref="BG11:BR11"/>
-    <mergeCell ref="BS11:CB11"/>
-    <mergeCell ref="CC11:CL11"/>
-    <mergeCell ref="CM11:DL11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:R12"/>
-    <mergeCell ref="S12:AF12"/>
-    <mergeCell ref="AG12:AT12"/>
-    <mergeCell ref="AU12:BF12"/>
-    <mergeCell ref="BG12:BR12"/>
-    <mergeCell ref="BS12:CB12"/>
-    <mergeCell ref="CC12:CL12"/>
-    <mergeCell ref="CM12:DL12"/>
-    <mergeCell ref="BS13:CB13"/>
-    <mergeCell ref="CC13:CL13"/>
-    <mergeCell ref="CM13:DL13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:R14"/>
-    <mergeCell ref="S14:AF14"/>
-    <mergeCell ref="AG14:AT14"/>
-    <mergeCell ref="AU14:BF14"/>
-    <mergeCell ref="BG14:BR14"/>
-    <mergeCell ref="BS14:CB14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:R13"/>
-    <mergeCell ref="S13:AF13"/>
-    <mergeCell ref="AG13:AT13"/>
-    <mergeCell ref="AU13:BF13"/>
-    <mergeCell ref="BG13:BR13"/>
-    <mergeCell ref="CC14:CL14"/>
-    <mergeCell ref="CM14:DL14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:R15"/>
-    <mergeCell ref="S15:AF15"/>
-    <mergeCell ref="AG15:AT15"/>
-    <mergeCell ref="AU15:BF15"/>
-    <mergeCell ref="BG15:BR15"/>
-    <mergeCell ref="BS15:CB15"/>
-    <mergeCell ref="CC15:CL15"/>
-    <mergeCell ref="CM15:DL15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:R16"/>
-    <mergeCell ref="S16:AF16"/>
-    <mergeCell ref="AG16:AT16"/>
-    <mergeCell ref="AU16:BF16"/>
-    <mergeCell ref="BG16:BR16"/>
-    <mergeCell ref="BS16:CB16"/>
-    <mergeCell ref="CC16:CL16"/>
-    <mergeCell ref="CM16:DL16"/>
-    <mergeCell ref="BS17:CB17"/>
-    <mergeCell ref="CC17:CL17"/>
-    <mergeCell ref="CM17:DL17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:AF17"/>
-    <mergeCell ref="AG17:AT17"/>
-    <mergeCell ref="AU17:BF17"/>
-    <mergeCell ref="BG17:BR17"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="S4:AF4"/>
+    <mergeCell ref="AG4:AT4"/>
+    <mergeCell ref="AU4:BF4"/>
+    <mergeCell ref="BG4:BR4"/>
+    <mergeCell ref="BS4:CB4"/>
+    <mergeCell ref="CC4:CL4"/>
+    <mergeCell ref="CM4:DL4"/>
+    <mergeCell ref="DM13:EL13"/>
+    <mergeCell ref="DM14:EL14"/>
+    <mergeCell ref="DM15:EL15"/>
+    <mergeCell ref="DM16:EL16"/>
+    <mergeCell ref="DM17:EL17"/>
+    <mergeCell ref="DM4:EL4"/>
+    <mergeCell ref="DM5:EL5"/>
+    <mergeCell ref="DM6:EL6"/>
+    <mergeCell ref="DM7:EL7"/>
+    <mergeCell ref="DM8:EL8"/>
+    <mergeCell ref="DM9:EL9"/>
+    <mergeCell ref="DM10:EL10"/>
+    <mergeCell ref="DM11:EL11"/>
+    <mergeCell ref="DM12:EL12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
